--- a/PRO1/step_3/time_series_example/res_load/p_mw.xlsx
+++ b/PRO1/step_3/time_series_example/res_load/p_mw.xlsx
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -1174,13 +1174,13 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1322,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
       <c r="X17">
         <v>0</v>
@@ -1763,16 +1763,16 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
       <c r="V19">
         <v>0</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>0.0132</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -1914,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
       <c r="W21">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
       <c r="W22">
         <v>0</v>
